--- a/AULAS BANCO DE DADOS/PLANILHA EXCEL/Exercicio de Coleção de Livros.xlsx
+++ b/AULAS BANCO DE DADOS/PLANILHA EXCEL/Exercicio de Coleção de Livros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\PROA\HTML\PROA-INTRODUCAO-HTML\AULAS BANCO DE DADOS\PLANILHA EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E85C95B-903A-47A2-9436-9A5BEB13D441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E675D9-571C-438C-8ABD-570CE44C0645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="100">
   <si>
     <t>livrosID</t>
   </si>
@@ -99,9 +99,6 @@
     <t xml:space="preserve">Muito bom </t>
   </si>
   <si>
-    <t>3227  Fairmont Avenue</t>
-  </si>
-  <si>
     <t>202-555-0171</t>
   </si>
   <si>
@@ -267,13 +264,7 @@
     <t xml:space="preserve">Nome </t>
   </si>
   <si>
-    <t xml:space="preserve">Fantasia </t>
-  </si>
-  <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>endereço</t>
   </si>
   <si>
     <t>Inglaterra</t>
@@ -355,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -401,6 +392,13 @@
       <sz val="10"/>
       <name val="Ubuntu"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -429,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -478,6 +476,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -700,7 +704,7 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M1" sqref="M1:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -760,8 +764,8 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>91</v>
+      <c r="M1" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>12</v>
@@ -778,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>15</v>
@@ -808,19 +812,19 @@
         <v>19</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="9">
+        <v>90</v>
+      </c>
+      <c r="M2" s="16">
         <v>3227</v>
       </c>
       <c r="N2" s="15">
         <v>26159</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
@@ -828,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>15</v>
@@ -853,22 +857,22 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="9">
+        <v>90</v>
+      </c>
+      <c r="M3" s="16">
         <v>3227</v>
       </c>
       <c r="N3" s="15">
         <v>26160</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -876,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>15</v>
@@ -891,7 +895,7 @@
         <v>50.36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>17</v>
@@ -903,22 +907,22 @@
         <v>38584</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="9">
+        <v>90</v>
+      </c>
+      <c r="M4" s="16">
         <v>3227</v>
       </c>
       <c r="N4" s="15">
         <v>26161</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
@@ -926,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>15</v>
@@ -941,7 +945,7 @@
         <v>15.21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>17</v>
@@ -953,22 +957,22 @@
         <v>43490</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="9">
+        <v>90</v>
+      </c>
+      <c r="M5" s="16">
         <v>3227</v>
       </c>
       <c r="N5" s="15">
         <v>26162</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
@@ -976,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="12">
         <v>38390</v>
@@ -991,34 +995,34 @@
         <v>60.23</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="J6" s="12">
         <v>40098</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="9">
+        <v>91</v>
+      </c>
+      <c r="M6" s="16">
         <v>2103</v>
       </c>
       <c r="N6" s="12">
         <v>36724</v>
       </c>
       <c r="O6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
@@ -1026,10 +1030,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="12">
         <v>37660</v>
@@ -1041,34 +1045,34 @@
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="J7" s="12">
         <v>38636</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="14">
+        <v>93</v>
+      </c>
+      <c r="M7" s="21">
         <v>27801</v>
       </c>
       <c r="N7" s="12">
         <v>42372</v>
       </c>
       <c r="O7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
@@ -1076,7 +1080,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>15</v>
@@ -1091,10 +1095,10 @@
         <v>20.9</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>18</v>
@@ -1106,19 +1110,19 @@
         <v>19</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="14">
+        <v>92</v>
+      </c>
+      <c r="M8" s="21">
         <v>77301</v>
       </c>
       <c r="N8" s="12">
         <v>40444</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
@@ -1126,10 +1130,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="12">
         <v>38020</v>
@@ -1144,31 +1148,31 @@
         <v>16</v>
       </c>
       <c r="H9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="J9" s="12">
         <v>43864</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="N9" s="12">
         <v>38896</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
@@ -1176,10 +1180,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="18">
         <v>43490</v>
@@ -1194,31 +1198,31 @@
         <v>16</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="J10" s="12">
         <v>40943</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="14">
+        <v>94</v>
+      </c>
+      <c r="M10" s="21">
         <v>3788</v>
       </c>
       <c r="N10" s="12">
         <v>36939</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
@@ -1226,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="12">
         <v>44899</v>
@@ -1241,34 +1245,34 @@
         <v>20.55</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="J11" s="12">
         <v>38584</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="14">
+        <v>95</v>
+      </c>
+      <c r="M11" s="21">
         <v>2710</v>
       </c>
       <c r="N11" s="12">
         <v>42372</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
@@ -1276,10 +1280,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D12" s="12">
         <v>36927</v>
@@ -1294,31 +1298,31 @@
         <v>16</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="J12" s="12">
         <v>38636</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="9">
+        <v>96</v>
+      </c>
+      <c r="M12" s="16">
         <v>221</v>
       </c>
       <c r="N12" s="15">
         <v>26160</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
@@ -1326,10 +1330,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" s="12">
         <v>37169</v>
@@ -1344,31 +1348,31 @@
         <v>16</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="J13" s="12">
         <v>38636</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="9">
+        <v>96</v>
+      </c>
+      <c r="M13" s="16">
         <v>221</v>
       </c>
       <c r="N13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="P13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
@@ -1376,10 +1380,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="12">
         <v>44418</v>
@@ -1391,34 +1395,34 @@
         <v>24.9</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="12">
         <v>44418</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="14">
+        <v>97</v>
+      </c>
+      <c r="M14" s="21">
         <v>2496</v>
       </c>
       <c r="N14" s="12">
         <v>38896</v>
       </c>
       <c r="O14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
@@ -1426,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>15</v>
@@ -1456,19 +1460,19 @@
         <v>19</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="9">
+        <v>98</v>
+      </c>
+      <c r="M15" s="16">
         <v>3227</v>
       </c>
       <c r="N15" s="15">
         <v>26159</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
@@ -1476,7 +1480,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>15</v>
@@ -1503,22 +1507,22 @@
         <v>40943</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M16" s="9">
+        <v>98</v>
+      </c>
+      <c r="M16" s="16">
         <v>3228</v>
       </c>
       <c r="N16" s="15">
         <v>26160</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
@@ -1526,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>15</v>
@@ -1541,7 +1545,7 @@
         <v>13.9</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>17</v>
@@ -1556,19 +1560,19 @@
         <v>19</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="9">
+        <v>90</v>
+      </c>
+      <c r="M17" s="16">
         <v>3229</v>
       </c>
       <c r="N17" s="15">
         <v>26161</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
@@ -1576,10 +1580,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="12">
         <v>44482</v>
@@ -1594,31 +1598,31 @@
         <v>16</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="12">
         <v>37290</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M18" s="9">
+        <v>99</v>
+      </c>
+      <c r="M18" s="16">
         <v>221</v>
       </c>
       <c r="N18" s="12">
         <v>40444</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1"/>
@@ -2618,26 +2622,156 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>76</v>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2650,53 +2784,267 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3">
-        <v>500</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>501</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3">
-        <v>600</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
+      <c r="C2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="14">
+        <v>27801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="14">
+        <v>77301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="9">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="9">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
